--- a/analysis/metadata/P09_2/P09_2_minimal_metadata.xlsx
+++ b/analysis/metadata/P09_2/P09_2_minimal_metadata.xlsx
@@ -473,7 +473,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2021-11-29</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -498,7 +498,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>2021-11-29</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -546,7 +546,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2021-11-29</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -571,7 +571,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>2021-11-29</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -619,7 +619,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2021-11-29</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -644,7 +644,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>2021-11-29</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -692,7 +692,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2021-11-29</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -717,7 +717,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>2021-11-29</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -765,7 +765,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2021-11-29</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -790,7 +790,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>2021-11-29</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -838,7 +838,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2021-11-29</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -863,7 +863,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>2021-11-29</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -911,7 +911,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2021-11-29</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -936,7 +936,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>2021-11-29</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -984,7 +984,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2021-11-29</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1009,7 +1009,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>2021-11-29</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -1057,7 +1057,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2021-11-29</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1082,7 +1082,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>2021-11-29</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -1130,7 +1130,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2021-11-29</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>2021-11-29</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2021-11-29</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1228,7 +1228,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>2021-11-29</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -1276,7 +1276,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2021-11-29</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1301,7 +1301,7 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>2021-11-29</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -1349,7 +1349,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2021-11-29</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1374,7 +1374,7 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>2021-11-29</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -1422,7 +1422,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2021-11-29</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1447,7 +1447,7 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>2021-11-29</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
@@ -1495,7 +1495,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2021-11-29</t>
+          <t>14/12/2021 00:00</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1520,7 +1520,7 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>2021-11-29</t>
+          <t>14/12/2021 00:00</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
@@ -1568,7 +1568,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2021-11-29</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1593,7 +1593,7 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>2021-11-29</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -1641,7 +1641,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2021-11-29</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1666,7 +1666,7 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>2021-11-29</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -1714,7 +1714,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2021-11-29</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1739,7 +1739,7 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>2021-11-29</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
@@ -1787,7 +1787,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2021-11-29</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1812,7 +1812,7 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>2021-11-29</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
@@ -1860,7 +1860,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2021-11-29</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1885,7 +1885,7 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>2021-11-29</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
@@ -1933,7 +1933,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2021-11-29</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1958,7 +1958,7 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>2021-11-29</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
@@ -2006,7 +2006,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2021-11-29</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -2031,7 +2031,7 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>2021-11-29</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
@@ -2079,7 +2079,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2021-11-29</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>2021-11-29</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2021-11-29</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -2177,7 +2177,7 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>2021-11-29</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
@@ -2225,7 +2225,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2021-11-29</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2250,7 +2250,7 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>2021-11-29</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
@@ -2298,7 +2298,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2021-11-29</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2323,7 +2323,7 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>2021-11-29</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
@@ -2371,7 +2371,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2021-11-29</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -2396,7 +2396,7 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>2021-11-29</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
@@ -2444,7 +2444,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2021-11-29</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2469,7 +2469,7 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>2021-11-29</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
@@ -2517,7 +2517,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2021-11-29</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2542,7 +2542,7 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>2021-11-29</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
@@ -2590,7 +2590,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2021-11-29</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2615,7 +2615,7 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>2021-11-29</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">

--- a/analysis/metadata/P09_2/P09_2_minimal_metadata.xlsx
+++ b/analysis/metadata/P09_2/P09_2_minimal_metadata.xlsx
@@ -473,7 +473,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -498,7 +498,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -546,7 +546,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -571,7 +571,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -619,7 +619,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -644,7 +644,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -692,7 +692,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -717,7 +717,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -765,7 +765,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -790,7 +790,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -838,7 +838,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -863,7 +863,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -911,7 +911,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -936,7 +936,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -984,7 +984,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1009,7 +1009,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -1057,7 +1057,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1082,7 +1082,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -1130,7 +1130,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1228,7 +1228,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -1276,7 +1276,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1301,7 +1301,7 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -1349,7 +1349,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1374,7 +1374,7 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -1422,7 +1422,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1447,7 +1447,7 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
@@ -1495,7 +1495,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>14/12/2021 00:00</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1520,7 +1520,7 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>14/12/2021 00:00</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
@@ -1568,7 +1568,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1593,7 +1593,7 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -1641,7 +1641,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1666,7 +1666,7 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -1714,7 +1714,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1739,7 +1739,7 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
@@ -1787,7 +1787,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1812,7 +1812,7 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
@@ -1860,7 +1860,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1885,7 +1885,7 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
@@ -1933,7 +1933,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1958,7 +1958,7 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
@@ -2006,7 +2006,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -2031,7 +2031,7 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
@@ -2079,7 +2079,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -2177,7 +2177,7 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
@@ -2225,7 +2225,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2250,7 +2250,7 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
@@ -2298,7 +2298,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2323,7 +2323,7 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
@@ -2371,7 +2371,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -2396,7 +2396,7 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
@@ -2444,7 +2444,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2469,7 +2469,7 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
@@ -2517,7 +2517,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2542,7 +2542,7 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
@@ -2590,7 +2590,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2615,7 +2615,7 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">

--- a/analysis/metadata/P09_2/P09_2_minimal_metadata.xlsx
+++ b/analysis/metadata/P09_2/P09_2_minimal_metadata.xlsx
@@ -473,7 +473,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2021-11-29</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -498,7 +498,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2021-11-29</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -546,7 +546,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2021-11-29</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -571,7 +571,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2021-11-29</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -619,7 +619,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2021-11-29</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -644,7 +644,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2021-11-29</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -692,7 +692,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2021-11-29</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -717,7 +717,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2021-11-29</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -765,7 +765,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2021-11-29</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -790,7 +790,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2021-11-29</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -838,7 +838,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2021-11-29</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -863,7 +863,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2021-11-29</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -911,7 +911,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2021-11-29</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -936,7 +936,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2021-11-29</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -984,7 +984,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2021-11-29</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1009,7 +1009,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2021-11-29</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -1057,7 +1057,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2021-11-29</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1082,7 +1082,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2021-11-29</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -1130,7 +1130,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2021-11-29</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2021-11-29</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2021-11-29</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1228,7 +1228,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2021-11-29</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -1276,7 +1276,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2021-11-29</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1301,7 +1301,7 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2021-11-29</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -1349,7 +1349,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2021-11-29</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1374,7 +1374,7 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2021-11-29</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -1422,7 +1422,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2021-11-29</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1447,7 +1447,7 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2021-11-29</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
@@ -1495,7 +1495,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2021-11-29</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1520,7 +1520,7 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2021-11-29</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
@@ -1568,7 +1568,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2021-11-29</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1593,7 +1593,7 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2021-11-29</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -1641,7 +1641,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2021-11-29</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1666,7 +1666,7 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2021-11-29</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -1714,7 +1714,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2021-11-29</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1739,7 +1739,7 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2021-11-29</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
@@ -1787,7 +1787,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2021-11-29</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1812,7 +1812,7 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2021-11-29</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
@@ -1860,7 +1860,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2021-11-29</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1885,7 +1885,7 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2021-11-29</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
@@ -1933,7 +1933,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2021-11-29</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1958,7 +1958,7 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2021-11-29</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
@@ -2006,7 +2006,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2021-11-29</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -2031,7 +2031,7 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2021-11-29</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
@@ -2079,7 +2079,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2021-11-29</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2021-11-29</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2021-11-29</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -2177,7 +2177,7 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2021-11-29</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
@@ -2225,7 +2225,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2021-11-29</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2250,7 +2250,7 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2021-11-29</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
@@ -2298,7 +2298,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2021-11-29</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2323,7 +2323,7 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2021-11-29</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
@@ -2371,7 +2371,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2021-11-29</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -2396,7 +2396,7 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2021-11-29</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
@@ -2444,7 +2444,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2021-11-29</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2469,7 +2469,7 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2021-11-29</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
@@ -2517,7 +2517,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2021-11-29</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2542,7 +2542,7 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2021-11-29</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
@@ -2590,7 +2590,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2021-11-29</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2615,7 +2615,7 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2021-11-29</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
